--- a/assets/dolar_blue2.xlsx
+++ b/assets/dolar_blue2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Downloads\app_var_fin_1\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin_1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -171,8 +171,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:G48" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:G49" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G49"/>
   <tableColumns count="7">
     <tableColumn id="1" name="meses" dataDxfId="0"/>
     <tableColumn id="2" name="Dólar Blue"/>
@@ -473,9 +473,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -484,7 +487,7 @@
     <col min="5" max="5" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,11 +509,11 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43800</v>
       </c>
@@ -533,7 +536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43831</v>
       </c>
@@ -556,7 +559,7 @@
         <v>101.82502443792769</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43862</v>
       </c>
@@ -579,7 +582,7 @@
         <v>103.15573774749393</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43891</v>
       </c>
@@ -602,7 +605,7 @@
         <v>103.02292348688972</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43922</v>
       </c>
@@ -625,7 +628,7 @@
         <v>104.7149354420882</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43952</v>
       </c>
@@ -648,7 +651,7 @@
         <v>106.43473640151642</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43983</v>
       </c>
@@ -671,7 +674,7 @@
         <v>107.44180479780083</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44013</v>
       </c>
@@ -694,7 +697,7 @@
         <v>108.77771026079215</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44044</v>
       </c>
@@ -717,7 +720,7 @@
         <v>109.27234697638895</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44075</v>
       </c>
@@ -740,7 +743,7 @@
         <v>109.66245350693693</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44105</v>
       </c>
@@ -763,7 +766,7 @@
         <v>108.81727082094899</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44136</v>
       </c>
@@ -786,7 +789,7 @@
         <v>108.78247460062835</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44166</v>
       </c>
@@ -809,7 +812,7 @@
         <v>107.91116881849061</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44197</v>
       </c>
@@ -832,7 +835,7 @@
         <v>107.0468418605502</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44228</v>
       </c>
@@ -1589,6 +1592,29 @@
       </c>
       <c r="G48">
         <v>111.9668326995497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B49">
+        <v>94.705961484941568</v>
+      </c>
+      <c r="C49">
+        <v>94.197578233871511</v>
+      </c>
+      <c r="D49">
+        <v>107.53614845444881</v>
+      </c>
+      <c r="E49">
+        <v>96.971611166751714</v>
+      </c>
+      <c r="F49">
+        <v>123.0884430582349</v>
+      </c>
+      <c r="G49">
+        <v>111.89685342911247</v>
       </c>
     </row>
   </sheetData>

--- a/assets/dolar_blue2.xlsx
+++ b/assets/dolar_blue2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin_1\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Downloads\app_var_fin-main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14304" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="data3" sheetId="3" r:id="rId1"/>
@@ -79,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,12 +98,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -111,6 +120,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,8 +184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:G49" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:G50" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G50"/>
   <tableColumns count="7">
     <tableColumn id="1" name="meses" dataDxfId="0"/>
     <tableColumn id="2" name="Dólar Blue"/>
@@ -473,11 +486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1627,30 @@
         <v>123.0884430582349</v>
       </c>
       <c r="G49">
-        <v>111.89685342911247</v>
+        <v>111.9668326995497</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B50" s="4">
+        <v>85.198463944431126</v>
+      </c>
+      <c r="C50" s="4">
+        <v>86.718380113083995</v>
+      </c>
+      <c r="D50" s="4">
+        <v>98.690946072979699</v>
+      </c>
+      <c r="E50" s="4">
+        <v>85.003434219624452</v>
+      </c>
+      <c r="F50" s="4">
+        <v>110.93470086068173</v>
+      </c>
+      <c r="G50">
+        <v>96.97</v>
       </c>
     </row>
   </sheetData>
